--- a/data/Question about CA.xlsx
+++ b/data/Question about CA.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/judithrichter/Desktop/Bachelorarbeit/Daten/Hochzuladende Dateien/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/judithrichter/Desktop/bachelor/Conjoint-Analysis-2024/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6C0FD3C-91C9-BA43-8592-7C0C25C31294}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFE29F6E-1C85-384C-8AD6-8C3A8A1D7CD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{B0AFFC39-EDC2-1B42-9CA8-9E7650D378EE}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16520" activeTab="1" xr2:uid="{B0AFFC39-EDC2-1B42-9CA8-9E7650D378EE}"/>
   </bookViews>
   <sheets>
     <sheet name="Q about CA" sheetId="1" r:id="rId1"/>
@@ -8695,7 +8695,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15F44F40-8CDB-604C-A165-1073B12886E9}">
   <dimension ref="A1:S199"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="75" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="75" workbookViewId="0">
       <selection activeCell="S1" sqref="S1"/>
     </sheetView>
   </sheetViews>
